--- a/SAP_B1/GVTBetagen/Templates/SalesTargetActual_Template.xlsx
+++ b/SAP_B1/GVTBetagen/Templates/SalesTargetActual_Template.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Workings\Projects\BTG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\TSC_Source\TSC\SAP_B1\GVTBetagen\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="456" yWindow="456" windowWidth="17280" windowHeight="8916"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -151,10 +151,10 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,76 +493,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
